--- a/Wine_Quality/outputs/train_80_test_20/wq_train_80_test_20_depth_accuracy.xlsx
+++ b/Wine_Quality/outputs/train_80_test_20/wq_train_80_test_20_depth_accuracy.xlsx
@@ -458,25 +458,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8015384615384615</v>
+        <v>0.7876923076923077</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7653846153846153</v>
+        <v>0.7669230769230769</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7715384615384615</v>
+        <v>0.7746153846153846</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7853846153846153</v>
+        <v>0.7838461538461539</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7884615384615384</v>
+        <v>0.7861538461538462</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7946153846153846</v>
+        <v>0.7861538461538462</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7869230769230769</v>
+        <v>0.7784615384615384</v>
       </c>
     </row>
   </sheetData>

--- a/Wine_Quality/outputs/train_80_test_20/wq_train_80_test_20_depth_accuracy.xlsx
+++ b/Wine_Quality/outputs/train_80_test_20/wq_train_80_test_20_depth_accuracy.xlsx
@@ -458,25 +458,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7876923076923077</v>
+        <v>78.77</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7669230769230769</v>
+        <v>76.69</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7746153846153846</v>
+        <v>77.45999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7838461538461539</v>
+        <v>78.38</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7861538461538462</v>
+        <v>78.62</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7861538461538462</v>
+        <v>78.62</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7784615384615384</v>
+        <v>77.84999999999999</v>
       </c>
     </row>
   </sheetData>
